--- a/docs/ultrasound/ultrasound-metadata.xlsx
+++ b/docs/ultrasound/ultrasound-metadata.xlsx
@@ -223,7 +223,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>The format in which each single imaging file will be exported. (Example: DICOM, tiff, avi, etc.)</t>
         </r>
       </text>
     </comment>
@@ -557,7 +557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>version</t>
   </si>
@@ -670,7 +670,13 @@
     <t>quality_view</t>
   </si>
   <si>
-    <t>high</t>
+    <t>high confidence/optimal</t>
+  </si>
+  <si>
+    <t>low confidence/sub-optimal</t>
+  </si>
+  <si>
+    <t>no confidence</t>
   </si>
   <si>
     <t>probe</t>
@@ -1171,31 +1177,31 @@
         <v>36</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1259,8 +1265,8 @@
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: high." sqref="AE2:AE1048576">
-      <formula1>'quality_view list'!$A$1:$A$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: high confidence/optimal / low confidence/sub-optimal / no confidence." sqref="AE2:AE1048576">
+      <formula1>'quality_view list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
       <formula1>-2147483647</formula1>
@@ -1319,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1328,6 +1334,16 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1388,22 +1404,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1421,17 +1437,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ultrasound/ultrasound-metadata.xlsx
+++ b/docs/ultrasound/ultrasound-metadata.xlsx
@@ -595,7 +595,7 @@
     <t>assay_category</t>
   </si>
   <si>
-    <t>imaging</t>
+    <t>clinical_imaging</t>
   </si>
   <si>
     <t>assay_type</t>
@@ -1209,7 +1209,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: clinical_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Ultrasound." sqref="L2:L1048576">
